--- a/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
+++ b/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User A\Documents\GitHub\ShinyCourse\WS_Bagamoyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CE89E0-79B0-4EF6-ABCC-45FEF4C493D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3DCC3-8790-4062-9049-BE286FFE6104}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>Attending</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Shadrack Elia Kibona</t>
   </si>
   <si>
-    <t>skibon@udsm.ac.tz</t>
-  </si>
-  <si>
     <t>Letus Laulian Muyaga</t>
   </si>
   <si>
@@ -221,7 +218,13 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Email address failed</t>
+    <t>Joel Changalucha</t>
+  </si>
+  <si>
+    <t>jchangalucha@ihi.or.tz</t>
+  </si>
+  <si>
+    <t>skibonA@udsm.ac.tz</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -417,14 +420,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -433,11 +436,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -446,106 +464,50 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -573,23 +535,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,35 +592,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -976,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEBD93C-F0D0-43E6-A03A-D04406D58D22}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,174 +947,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="34"/>
+      <c r="D1" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="43"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="24" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="O2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="R2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="S2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="T2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="U2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="V2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="W2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="X2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="Y2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Z2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="AA2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AB2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="43" t="s">
-        <v>62</v>
+      <c r="AC2" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="42" t="s">
-        <v>63</v>
-      </c>
+      <c r="C3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="29"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="4"/>
@@ -1188,55 +1138,105 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="40"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="30"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="40"/>
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" s="30"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
@@ -1262,18 +1262,18 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="40"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="30"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4"/>
@@ -1299,18 +1299,18 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="40"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="30"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="4"/>
@@ -1336,18 +1336,18 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="40"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="30"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4"/>
@@ -1373,18 +1373,18 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="40"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="30"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="4"/>
@@ -1410,18 +1410,18 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="40"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="30"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4"/>
@@ -1447,18 +1447,18 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="40"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="30"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
@@ -1484,18 +1484,18 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="40"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="30"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="4"/>
@@ -1521,18 +1521,18 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="40"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="30"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
@@ -1558,18 +1558,18 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="40"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="30"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>26</v>
+      <c r="A15" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
@@ -1595,132 +1595,169 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="40"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="30"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC16" s="30"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC16" s="40"/>
+      <c r="C17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="30"/>
     </row>
-    <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="41"/>
+      <c r="B18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1730,10 +1767,10 @@
     <mergeCell ref="D1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:AB17">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1753,8 +1790,9 @@
     <hyperlink ref="C15" r:id="rId13" xr:uid="{A1E28401-E8C0-49EE-91F4-3AEA54A43CB8}"/>
     <hyperlink ref="C16" r:id="rId14" xr:uid="{57380073-F50E-4BD1-A299-AA288A9BFBCB}"/>
     <hyperlink ref="C17" r:id="rId15" xr:uid="{AFB4CA76-D052-4F79-A569-40B24556EAAB}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{9050B5EE-3C36-46C2-8D91-6D827F132A50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
--- a/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
+++ b/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User A\Documents\GitHub\ShinyCourse\WS_Bagamoyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3DCC3-8790-4062-9049-BE286FFE6104}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A22D9-233B-46A3-9CBE-75367693AE3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HTML reports" sheetId="1" r:id="rId1"/>
+    <sheet name="Participant Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="123">
   <si>
     <t>Attending</t>
   </si>
@@ -224,14 +225,188 @@
     <t>jchangalucha@ihi.or.tz</t>
   </si>
   <si>
-    <t>skibonA@udsm.ac.tz</t>
+    <t>R experience</t>
+  </si>
+  <si>
+    <t>R project</t>
+  </si>
+  <si>
+    <t>Interest in attending</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Accommodation</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Nights</t>
+  </si>
+  <si>
+    <t>Ifakara_vehicle</t>
+  </si>
+  <si>
+    <t>skibon@udsm.ac.tz</t>
+  </si>
+  <si>
+    <t>Use it regularly for work</t>
+  </si>
+  <si>
+    <t>I had a project on modelling and forecasting food crop prices in the country. I fitted a model and used it for forecasting. In the process I used plot command for plotting graphs with support of the par() for arranging the combined graphs. When doing Masters in Statistics, I used Dendrogram in cluster analysis using R. Currently I am working on a paper which I wanted to use GIS and SaTscan for preparing a map for presenting distribution the outcome over the African map. With the new R shiny, I am expecting to learn it to simply what I am indtendin to learn.</t>
+  </si>
+  <si>
+    <t>I want attend the workshop so that I become familiar with it as a Statistician working with data every day. Data visualisation especially nowadays cannot be done with the traditional statistical analysis software. In my study, I am expecting to present some of my findings inform of maps and currently not well trained.</t>
+  </si>
+  <si>
+    <t>Sufficient R experience</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>University of Dar es Salaam, Ubungo</t>
+  </si>
+  <si>
+    <t>PROJECT: Estimating probabilities of malaria transmission events occurring indoors or outdoors in rural south-eastern Tanzania Using actual Plasmodium sporozoite infections data obtained from field collections of two major malaria vectors, Anopheles arabiensis and Anopheles funestus, in south-eastern Tanzania, we perform logistic-regression analysis to estimate actual probabilities of malaria transmission events occurring indoors or outdoors We demonstrate that despite high outdoor biting rates, actual transmission events still occur mostly indoors. This outcome is driven primarily by Anopheles funestus.</t>
+  </si>
+  <si>
+    <t>Since am familiar with R then with additional knowledge on data visualization using RShiny, and building various applications this will enable to create powerful and easily shareable interactive dashboards, which is useful to solve various issues such as delay and expense for development caused by web developers. It relates in the fact that it enables easier sharing of data and output  to the users due to the use of easily and shareable interactive dashboards</t>
+  </si>
+  <si>
+    <t>Ifakara health institute, mvomero</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A phase III LLIN is in progress and we aim to predict the epidemiological effectiveness of study nets. I believe it will be nice to show the predicted effectiveness like that of Yellow fever EIR. Also, we always collect information on bednet coverage in the baseline, the Rshiny tool can help in better visualization of the extent of LLIN coverage in the study area. Better visualization from LLIN Phase II and III trials' results. </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ifakara health institute, bagamoyo</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Use it but not as often, I use it for some figures and mapping</t>
+  </si>
+  <si>
+    <t>I have plotted locations with high risks of TB transmission in Dar</t>
+  </si>
+  <si>
+    <t>I have always wanted to have a tool for sharing the data from my cohort study, so attending this workshop will equip me with this technical know how and bring me a step closer to data sharing. It relates to my current project as I want to build a platform to communicate the ongoing cohort, and also in the future work -- I would like to share the results of my work</t>
+  </si>
+  <si>
+    <t>Ifakara health institute, dar es salaam</t>
+  </si>
+  <si>
+    <t>I used R to analyse my Msc research project. I used to the generated plots to visualize the analysed data</t>
+  </si>
+  <si>
+    <t>I want to learn how to create a shiny app that will help me to better visualize the data I am collecting. I am currently collecting data that needs to be shared and accessed online by several stakeholders from the government. This data needs to be summarized and analysed graphically. This is an opportunity that I could use to create some plots for visualization. The projects are ongoing and all stakeholders needs to have an access to the data being collected</t>
+  </si>
+  <si>
+    <t>Ifakara health institute</t>
+  </si>
+  <si>
+    <t>3 or 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. I did my masters thesis analysis purely on R. I was applying GAMMs models in time series data trying to associated micro-climate with mosquito abundance. 2. Currently working on my PhD which am using population dynamics models using Bayesian methods. Simple population models and State Space Models will be developed. All of these will be implemented in R under JAGS. 3. I have published several papers to which all the analysis was done in R. 4. I normally visualize the data using ggplot2 package. Though not very much confident in mapping using R but its an area to which I can improve. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to attend the training in order to acquire some skills and be able to develop shinny app based on my own analysis. I have been working with ecological data analyzing data using R for a while and this app will be important in visualize the output from my analysis.  </t>
+  </si>
+  <si>
+    <t>My project was based on determining the effects of treated emanators on different strains of mosquitoes. to see if the transfluthrin repellent was effective in repelling mosquitoes or not</t>
+  </si>
+  <si>
+    <t>To learn more about data visualisation and presentation using R. I am an entomologist aspiring to do my masters and PhD in the future . Therefore the skills obtained will help me in my future studies and career.</t>
+  </si>
+  <si>
+    <t>Ifakara health institute, Based in Bagamoyo</t>
+  </si>
+  <si>
+    <t>To find trend of influenza prediction per weeks of the year and weeks of the months</t>
+  </si>
+  <si>
+    <t>To share knowledge and experience of R with other colleagues. I hope to gain a lot of knowledge and increase collaboration and networking with other colleagues.</t>
+  </si>
+  <si>
+    <t>Used it in a course</t>
+  </si>
+  <si>
+    <t>The assignment was to assess factors associated with hypoxia among patients with sickle cell anemia in Tanzania. Descriptive statistics and multivariate logistic regression were applied. Data were presented by using BoxPlot (oxygen concentration by age groups) and Tables.</t>
+  </si>
+  <si>
+    <t>To gain knowledge and expand my skills on data analysis and R software, particularly Rshiny which I have never used before . There some data of malaria prevalence in Children from  different clusters( villages ) . Therefore this can be well visualize using Rshiny</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Ifakara Health Institute, Bagamoyo</t>
+  </si>
+  <si>
+    <t>Goal: Trakning;. Activity: Anyzing DHS data: Visualization: ggplots and histograms</t>
+  </si>
+  <si>
+    <t>I want to advance my research anlysis and data Visualization techniques which are very useful in improving my research outputs and teaching activities. I am currently working in tha paper which I would like to display the results via maps.</t>
+  </si>
+  <si>
+    <t>University of Dar es Salaam - Mbeya College of Health and Allied Sciences</t>
+  </si>
+  <si>
+    <t>- I used for solving ODEs - I used for plotting ODEs - I used for par estimations, like MLE, OLSE - I used for analyzing time series data</t>
+  </si>
+  <si>
+    <t>Tanzania Institute of Accountancy, Mbeya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project was to design a passive outdoor host seeking device (POHD) that can efficiently attract and kill outdoor mosquitoes. The device was to be affordable, portable and one without an external power source. The designed device was used to compare its attractiveness when applied different attractants. Then, it was optimized to improve the efficiency based on placement of attractants and bioactives. Blend types were (Ifakara and Mbita blend), blend formulation (strips and granules) and treatments ( blend+carbon dioxide+bioactive, blend+bioactive, carbon dioxide+bioactive, blend+carbon dioxide). Treatments and experimental conditions were included as main effects. Day of the experiments was included as random effect. The main effects and their interaction term were sequentially added into a base model to create full model. The efficacy of POHD based attractants and bioactive placement was assessed in terms of mosquitoes proportion attracted and killed by the device as the response variable. Then relationship of this response variable and the explanatory variables (treatments, blend types, and formulation types) were analyzed using generalized linear mixed effect models with binomial errors (glmer). Treatments, blend type and formulation type in the device were taken as the main effect (fixed effects), and the replicates were taken as random effect. A base model including only random effect of “replicate” was constructed. A sequential addition of the ‘main effects’ and their interaction (treatment*blend type, and treatment*formulation type) was conducted to construct a maximal model (forward stepwise approach). Statistical significance of fixed effects and interaction term was generated and evaluated using likelihood ratio tests (LRTs). Then, full model was used to perform a two-ways multiple comparisons using Turkey post hoc tests to establish statistical differences between treatments. </t>
+  </si>
+  <si>
+    <t>Sokoine University of Agriculture (SUA), Morogoro</t>
+  </si>
+  <si>
+    <t>Bagamoyo</t>
+  </si>
+  <si>
+    <t>I did a microbial ecology and diversity project that I analysed the data in R. The goal of the project was to analyse the distribution of soil microorganisms along an altitudinal transect. In the project I did laboratory analysis of the samples (DNA extraction and sequencing) and statistic evaluations evaluating the microbial species present, abundance, distribution, diversity (alpha and beta) and the effect of the associated physicochemical (environmental) parameters. The data was visualized by scatter-plots, Venn diagrams, heat maps and bar graph.</t>
+  </si>
+  <si>
+    <t>I wanna attend the workshop to increase my knowledge in R applications, learn more advanced/inclusive ways of data presentation and strengthern my research skills. Currently I am doing a project the has multiple set of dependent and independent variables which on my thinking will fit being presented with Shinny. Also in the future I am planing to propose some survey studies that will involves spacial data collection and what a better way of presenting the result/data? Shiny</t>
+  </si>
+  <si>
+    <t>Ifakara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The goal was to design a simple and scalable eave and window gap screens by using readily available material which found in the community and painting these screen with insecticide so us to reduce the population of mosquito vectors. House volunteers were divided into three group(screened+treated, screened only and unscreened act as negative control) each contain about 15 houses .Fiberglass net were installed in eave gaps and windows in order to block these entry and finally treated by painting pirimiphos-methyl on the screen, the other routes on the wall were closed with mud and piece of bricks so us to attain full screened house. The entomological results collected by CDC light trap machine from each house were used during analysis to compare the difference in indoor mosquito catch in each group of house treatment. Also another data from cone bio-assay conducted on these screen were used to check the efficiency of insecticide after 3 and 6 month post painting. These data were graphically plotted using R package(ggplot2) by combining the scatter and smooth plot. Finally we introduced a GLM to test the statistical significance for our hypothesis. </t>
+  </si>
+  <si>
+    <t>Ifakara, Ifakara</t>
+  </si>
+  <si>
+    <t>skibona@udsm.ac.tz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +436,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +461,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -591,6 +786,102 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -930,11 +1221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEBD93C-F0D0-43E6-A03A-D04406D58D22}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -946,7 +1237,7 @@
     <col min="29" max="29" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1275,7 @@
       <c r="AA1" s="42"/>
       <c r="AB1" s="43"/>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" s="2" customFormat="1" ht="50.4" customHeight="1" thickBot="1">
       <c r="A2" s="36"/>
       <c r="B2" s="38"/>
       <c r="C2" s="40"/>
@@ -1067,7 +1358,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29">
       <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
@@ -1104,7 +1395,7 @@
       <c r="AB3" s="32"/>
       <c r="AC3" s="29"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1141,7 +1432,7 @@
       <c r="AB4" s="22"/>
       <c r="AC4" s="30"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -1228,7 +1519,7 @@
       </c>
       <c r="AC5" s="30"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1556,7 @@
       <c r="AB6" s="22"/>
       <c r="AC6" s="30"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1593,7 @@
       <c r="AB7" s="22"/>
       <c r="AC7" s="30"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
@@ -1339,7 +1630,7 @@
       <c r="AB8" s="22"/>
       <c r="AC8" s="30"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29">
       <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1667,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="30"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1704,7 @@
       <c r="AB10" s="22"/>
       <c r="AC10" s="30"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29">
       <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1741,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="30"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -1487,7 +1778,7 @@
       <c r="AB12" s="22"/>
       <c r="AC12" s="30"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1815,7 @@
       <c r="AB13" s="22"/>
       <c r="AC13" s="30"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29">
       <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1852,7 @@
       <c r="AB14" s="33"/>
       <c r="AC14" s="30"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29">
       <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
@@ -1598,7 +1889,7 @@
       <c r="AB15" s="33"/>
       <c r="AC15" s="30"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29">
       <c r="A16" s="12" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1976,7 @@
       </c>
       <c r="AC16" s="30"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
@@ -1722,7 +2013,7 @@
       <c r="AB17" s="22"/>
       <c r="AC17" s="30"/>
     </row>
-    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" ht="15" thickBot="1">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -1795,4 +2086,650 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707CAF59-6F0A-4508-AEAF-2CD57FC1B807}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.88671875" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="127.33203125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="148.21875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="44" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="61.77734375" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="73" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="73" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="65" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="52.8">
+      <c r="A2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="66">
+        <v>3</v>
+      </c>
+      <c r="L2" s="67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="66">
+      <c r="A3" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="66">
+        <v>4</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="39.6">
+      <c r="A4" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="39.6">
+      <c r="A5" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="66">
+        <v>3</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="39.6">
+      <c r="A6" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="52.8">
+      <c r="A7" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="66">
+        <v>4</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="26.4">
+      <c r="A8" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="26.4">
+      <c r="A10" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="26.4">
+      <c r="A11" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="66">
+        <v>4</v>
+      </c>
+      <c r="L11" s="67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="66">
+        <v>4</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="171.6">
+      <c r="A13" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="70"/>
+    </row>
+    <row r="15" spans="1:12" ht="52.8">
+      <c r="A15" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="66">
+        <v>4</v>
+      </c>
+      <c r="L15" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="106.2" thickBot="1">
+      <c r="A16" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="71">
+        <v>4</v>
+      </c>
+      <c r="L16" s="72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{83C89523-6335-42A7-83DA-C957A37E2CA1}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{ABFF8672-43E2-48AB-8AEC-7BD6CE725CF2}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{7A4B9CAA-4A9D-42AF-B938-4B7176D92773}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{CD3C2FBA-549C-4A23-8558-C99586EA698B}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{5EF13168-6252-448F-AAC3-AD1857572CE6}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{10BEE3D8-0400-4762-B142-787ABC4C4EDA}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{96008EDF-6CF1-4908-87A3-3EBA76B69DCD}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{6B24CAD5-3771-4FD5-963B-B6C6E656FFF6}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{085E589A-A51E-4520-97F5-BBFE14DF64E3}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{E1C3B716-BF2E-4508-B114-7AF46858B12F}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{70E15188-EE13-4973-99AB-95D214B86A63}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{60BDC9D5-1C46-44F0-B2C8-72F01EF6F846}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{2991757E-84AC-4700-9C0B-5FF41C7E9637}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{A4F44C9B-AD17-43AF-A5ED-C331C0C26B56}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{9A48B063-E2AD-4331-B633-153789F7E918}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
+</worksheet>
 </file>
--- a/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
+++ b/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User A\Documents\GitHub\ShinyCourse\WS_Bagamoyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A22D9-233B-46A3-9CBE-75367693AE3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD50793-4D66-4DF7-A88C-BDBEA1548BDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
   </bookViews>
@@ -760,6 +760,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,102 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1238,47 +1238,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="43"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="75"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="50.4" customHeight="1" thickBot="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="14" t="s">
         <v>35</v>
       </c>
@@ -2093,621 +2093,621 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="127.33203125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="148.21875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" style="44" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="44" customWidth="1"/>
-    <col min="10" max="10" width="61.77734375" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="73" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="73" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="44"/>
+    <col min="1" max="1" width="15.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="127.33203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="148.21875" style="36" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="35" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="61.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="64" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="64" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="65" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:12" s="56" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="66" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="52.8">
-      <c r="A2" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="66">
-        <v>3</v>
-      </c>
-      <c r="L2" s="67" t="s">
+      <c r="K2" s="57">
+        <v>3</v>
+      </c>
+      <c r="L2" s="58" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="66">
-      <c r="A3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="57">
         <v>4</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="39.6">
-      <c r="A4" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="58" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="39.6">
-      <c r="A5" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="66">
-        <v>3</v>
-      </c>
-      <c r="L5" s="67" t="s">
+      <c r="K5" s="57">
+        <v>3</v>
+      </c>
+      <c r="L5" s="58" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="39.6">
-      <c r="A6" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="52.8">
-      <c r="A7" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="57">
         <v>4</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="26.4">
-      <c r="A8" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="58" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="58" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="26.4">
-      <c r="A10" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="58" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.4">
-      <c r="A11" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="57">
         <v>4</v>
       </c>
-      <c r="L11" s="67" t="s">
+      <c r="L11" s="58" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="66">
+      <c r="K12" s="57">
         <v>4</v>
       </c>
-      <c r="L12" s="67" t="s">
+      <c r="L12" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="171.6">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="70" t="s">
+      <c r="L13" s="61" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="70"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="1:12" ht="52.8">
-      <c r="A15" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="K15" s="66">
+      <c r="K15" s="57">
         <v>4</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="L15" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="106.2" thickBot="1">
-      <c r="A16" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="58" t="s">
+      <c r="A16" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="58" t="s">
+      <c r="F16" s="51"/>
+      <c r="G16" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J16" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="71">
+      <c r="K16" s="62">
         <v>4</v>
       </c>
-      <c r="L16" s="72" t="s">
+      <c r="L16" s="63" t="s">
         <v>3</v>
       </c>
     </row>

--- a/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
+++ b/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User A\Documents\GitHub\ShinyCourse\WS_Bagamoyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD50793-4D66-4DF7-A88C-BDBEA1548BDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12635D1-FF45-4290-9B00-8E80AA6BF5DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML reports" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="123">
   <si>
     <t>Attending</t>
   </si>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEBD93C-F0D0-43E6-A03A-D04406D58D22}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1368,31 +1368,81 @@
       <c r="C3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="32"/>
+      <c r="D3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="AC3" s="29"/>
     </row>
     <row r="4" spans="1:29">
@@ -1714,31 +1764,81 @@
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="22"/>
+      <c r="D11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB11" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="AC11" s="30"/>
     </row>
     <row r="12" spans="1:29">
@@ -1751,31 +1851,81 @@
       <c r="C12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="22"/>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB12" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="AC12" s="30"/>
     </row>
     <row r="13" spans="1:29">
@@ -2092,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707CAF59-6F0A-4508-AEAF-2CD57FC1B807}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
+++ b/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User A\Documents\GitHub\ShinyCourse\WS_Bagamoyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12635D1-FF45-4290-9B00-8E80AA6BF5DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEC645-3699-47C0-8528-328509FC3DDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML reports" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="122">
   <si>
     <t>Attending</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>Ifakara_vehicle</t>
-  </si>
-  <si>
-    <t>skibon@udsm.ac.tz</t>
   </si>
   <si>
     <t>Use it regularly for work</t>
@@ -1221,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEBD93C-F0D0-43E6-A03A-D04406D58D22}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
@@ -1366,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>60</v>
@@ -2242,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707CAF59-6F0A-4508-AEAF-2CD57FC1B807}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2309,28 +2306,28 @@
         <v>4</v>
       </c>
       <c r="C2" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="J2" s="37" t="s">
         <v>79</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>80</v>
       </c>
       <c r="K2" s="57">
         <v>3</v>
@@ -2350,25 +2347,25 @@
         <v>6</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>82</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>83</v>
       </c>
       <c r="K3" s="57">
         <v>4</v>
@@ -2388,28 +2385,28 @@
         <v>8</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="G4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="37" t="s">
+      <c r="I4" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="37" t="s">
+      <c r="K4" s="57" t="s">
         <v>87</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>88</v>
       </c>
       <c r="L4" s="58" t="s">
         <v>25</v>
@@ -2426,25 +2423,25 @@
         <v>10</v>
       </c>
       <c r="D5" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="G5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>92</v>
       </c>
       <c r="K5" s="57">
         <v>3</v>
@@ -2464,28 +2461,28 @@
         <v>12</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="G6" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="37" t="s">
+      <c r="K6" s="59" t="s">
         <v>95</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>96</v>
       </c>
       <c r="L6" s="58" t="s">
         <v>3</v>
@@ -2502,25 +2499,25 @@
         <v>14</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>98</v>
-      </c>
       <c r="G7" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="I7" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="37" t="s">
-        <v>79</v>
-      </c>
       <c r="J7" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" s="57">
         <v>4</v>
@@ -2540,28 +2537,28 @@
         <v>16</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="G8" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>101</v>
-      </c>
       <c r="K8" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L8" s="58" t="s">
         <v>25</v>
@@ -2578,28 +2575,28 @@
         <v>18</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="40" t="s">
-        <v>103</v>
-      </c>
       <c r="G9" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="37" t="s">
+      <c r="K9" s="57" t="s">
         <v>87</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>88</v>
       </c>
       <c r="L9" s="58" t="s">
         <v>25</v>
@@ -2616,28 +2613,28 @@
         <v>20</v>
       </c>
       <c r="D10" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="F10" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="G10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="37" t="s">
+      <c r="J10" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>108</v>
-      </c>
       <c r="K10" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" s="58" t="s">
         <v>25</v>
@@ -2654,25 +2651,25 @@
         <v>22</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="G11" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>110</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>111</v>
       </c>
       <c r="K11" s="57">
         <v>4</v>
@@ -2692,23 +2689,23 @@
         <v>24</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="I12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="37" t="s">
-        <v>79</v>
-      </c>
       <c r="J12" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K12" s="57">
         <v>4</v>
@@ -2728,26 +2725,26 @@
         <v>27</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="42" t="s">
-        <v>78</v>
-      </c>
       <c r="I13" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K13" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="61" t="s">
         <v>25</v>
@@ -2764,26 +2761,26 @@
         <v>29</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K14" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" s="61"/>
     </row>
@@ -2798,25 +2795,25 @@
         <v>31</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="37" t="s">
         <v>118</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>119</v>
       </c>
       <c r="K15" s="57">
         <v>4</v>
@@ -2836,23 +2833,23 @@
         <v>33</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="I16" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="49" t="s">
-        <v>79</v>
-      </c>
       <c r="J16" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K16" s="62">
         <v>4</v>

--- a/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
+++ b/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User A\Documents\GitHub\ShinyCourse\WS_Bagamoyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEC645-3699-47C0-8528-328509FC3DDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE161F4B-30B7-486A-AEA0-BD76E3FD5AAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML reports" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="123">
   <si>
     <t>Attending</t>
   </si>
@@ -397,13 +397,16 @@
   </si>
   <si>
     <t>skibona@udsm.ac.tz</t>
+  </si>
+  <si>
+    <t>Experiencing issues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,11 +1221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEBD93C-F0D0-43E6-A03A-D04406D58D22}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1234,7 +1237,7 @@
     <col min="29" max="29" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1275,7 @@
       <c r="AA1" s="74"/>
       <c r="AB1" s="75"/>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" ht="50.4" customHeight="1" thickBot="1">
+    <row r="2" spans="1:29" s="2" customFormat="1" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="72"/>
@@ -1355,7 +1358,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
@@ -1442,7 +1445,7 @@
       </c>
       <c r="AC3" s="29"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1482,7 @@
       <c r="AB4" s="22"/>
       <c r="AC4" s="30"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1569,7 @@
       </c>
       <c r="AC5" s="30"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1576,34 +1579,84 @@
       <c r="C6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="22"/>
+      <c r="D6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB6" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="AC6" s="30"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1693,7 @@
       <c r="AB7" s="22"/>
       <c r="AC7" s="30"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
@@ -1677,7 +1730,7 @@
       <c r="AB8" s="22"/>
       <c r="AC8" s="30"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
@@ -1712,9 +1765,11 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="22"/>
-      <c r="AC9" s="30"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AC9" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -1751,7 +1806,7 @@
       <c r="AB10" s="22"/>
       <c r="AC10" s="30"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +1893,7 @@
       </c>
       <c r="AC11" s="30"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -1925,7 +1980,7 @@
       </c>
       <c r="AC12" s="30"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +2017,7 @@
       <c r="AB13" s="22"/>
       <c r="AC13" s="30"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
@@ -1999,7 +2054,7 @@
       <c r="AB14" s="33"/>
       <c r="AC14" s="30"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
@@ -2036,7 +2091,7 @@
       <c r="AB15" s="33"/>
       <c r="AC15" s="30"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>3</v>
       </c>
@@ -2123,7 +2178,7 @@
       </c>
       <c r="AC16" s="30"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
@@ -2160,7 +2215,7 @@
       <c r="AB17" s="22"/>
       <c r="AC17" s="30"/>
     </row>
-    <row r="18" spans="1:29" ht="15" thickBot="1">
+    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -2239,11 +2294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707CAF59-6F0A-4508-AEAF-2CD57FC1B807}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -2260,7 +2315,7 @@
     <col min="13" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="56" customFormat="1" ht="41.4" customHeight="1">
+    <row r="1" spans="1:12" s="56" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2353,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="52.8">
+    <row r="2" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
@@ -2336,7 +2391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="66">
+    <row r="3" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
@@ -2374,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="39.6">
+    <row r="4" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
@@ -2412,7 +2467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="39.6">
+    <row r="5" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>3</v>
       </c>
@@ -2450,7 +2505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="39.6">
+    <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
@@ -2488,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="52.8">
+    <row r="7" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>3</v>
       </c>
@@ -2526,7 +2581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26.4">
+    <row r="8" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
@@ -2564,7 +2619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
@@ -2602,7 +2657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="26.4">
+    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>3</v>
       </c>
@@ -2640,7 +2695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="26.4">
+    <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +2733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
         <v>3</v>
       </c>
@@ -2714,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="171.6">
+    <row r="13" spans="1:12" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>25</v>
       </c>
@@ -2750,7 +2805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>25</v>
       </c>
@@ -2784,7 +2839,7 @@
       </c>
       <c r="L14" s="61"/>
     </row>
-    <row r="15" spans="1:12" ht="52.8">
+    <row r="15" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>3</v>
       </c>
@@ -2822,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="106.2" thickBot="1">
+    <row r="16" spans="1:12" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>3</v>
       </c>

--- a/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
+++ b/WS_Bagamoyo/Bagamoyo_package_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User A\Documents\GitHub\ShinyCourse\WS_Bagamoyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE161F4B-30B7-486A-AEA0-BD76E3FD5AAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A984D56-A995-460D-8F3A-426E31751E6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF9C3A1A-9494-44C4-9D54-688DD7834087}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="124">
   <si>
     <t>Attending</t>
   </si>
@@ -399,7 +399,10 @@
     <t>skibona@udsm.ac.tz</t>
   </si>
   <si>
-    <t>Experiencing issues</t>
+    <t>Maganga Sambo</t>
+  </si>
+  <si>
+    <t>m.sambo.1@research.gla.ac.uk</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -615,29 +618,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -650,61 +677,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -712,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -725,41 +698,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -856,22 +805,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -891,21 +858,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1219,17 +1186,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEBD93C-F0D0-43E6-A03A-D04406D58D22}">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.77734375" customWidth="1"/>
     <col min="5" max="12" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -1238,224 +1205,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="75"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="69"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="14" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AC2" s="54" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB3" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3" s="29"/>
+      <c r="D3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="18"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1479,20 +1446,20 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="30"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="14"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1564,22 +1531,22 @@
       <c r="AA5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AB5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="30"/>
+      <c r="AB5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" s="14"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1651,22 +1618,22 @@
       <c r="AA6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AB6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC6" s="30"/>
+      <c r="AB6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" s="14"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1690,20 +1657,20 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="30"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="14"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1727,59 +1694,107 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="30"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="14"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="30" t="s">
-        <v>122</v>
-      </c>
+      <c r="D9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="14"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1803,20 +1818,20 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="30"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="14"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1888,22 +1903,22 @@
       <c r="AA11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AB11" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC11" s="30"/>
+      <c r="AB11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC11" s="14"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1975,22 +1990,22 @@
       <c r="AA12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AB12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC12" s="30"/>
+      <c r="AB12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC12" s="14"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2014,20 +2029,20 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="30"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2051,20 +2066,20 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="30"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2088,20 +2103,20 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="30"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2173,22 +2188,22 @@
       <c r="AA16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AB16" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC16" s="30"/>
+      <c r="AB16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2212,45 +2227,132 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="30"/>
-    </row>
-    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="14"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="31"/>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC18" s="14"/>
+    </row>
+    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2259,12 +2361,12 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:AB1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:AB17">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="y">
+  <conditionalFormatting sqref="D3:AB19">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="n">
-      <formula>NOT(ISERROR(SEARCH("n",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2284,9 +2386,10 @@
     <hyperlink ref="C16" r:id="rId14" xr:uid="{57380073-F50E-4BD1-A299-AA288A9BFBCB}"/>
     <hyperlink ref="C17" r:id="rId15" xr:uid="{AFB4CA76-D052-4F79-A569-40B24556EAAB}"/>
     <hyperlink ref="C18" r:id="rId16" xr:uid="{9050B5EE-3C36-46C2-8D91-6D827F132A50}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{D15DD572-E1AB-4462-89FE-7D54A5738675}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -2300,616 +2403,616 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="127.33203125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="148.21875" style="36" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="61.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="64" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="64" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="35"/>
+    <col min="1" max="1" width="15.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="127.33203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="148.21875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="61.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="56" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:12" s="40" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="57">
-        <v>3</v>
-      </c>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="41">
+        <v>3</v>
+      </c>
+      <c r="L2" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="41">
         <v>4</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="57">
-        <v>3</v>
-      </c>
-      <c r="L5" s="58" t="s">
+      <c r="K5" s="41">
+        <v>3</v>
+      </c>
+      <c r="L5" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="41">
         <v>4</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="58" t="s">
+      <c r="L10" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="41">
         <v>4</v>
       </c>
-      <c r="L11" s="58" t="s">
+      <c r="L11" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="41">
         <v>4</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="42" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="42" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="60" t="s">
+      <c r="K14" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="61"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="41">
         <v>4</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="49" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="46">
         <v>4</v>
       </c>
-      <c r="L16" s="63" t="s">
+      <c r="L16" s="47" t="s">
         <v>3</v>
       </c>
     </row>
